--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -18219,7 +18219,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>성개</t>
+    <t>성게</t>
   </si>
   <si>
     <t>sea urchin</t>
@@ -18711,7 +18711,7 @@
     <t>チーズ</t>
   </si>
   <si>
-    <t>#1乳酪</t>
+    <t>#1 치즈</t>
   </si>
   <si>
     <t>#1 cheese</t>
@@ -19554,7 +19554,7 @@
     <t>Beta 22.27</t>
   </si>
   <si>
-    <t>군고구마</t>
+    <t>구운 이모</t>
   </si>
   <si>
     <t>stone roasted sweet imo</t>
@@ -19638,7 +19638,7 @@
     <t>シーザーサラダ</t>
   </si>
   <si>
-    <t>#1시저 샐러드</t>
+    <t>#1 시저 샐러드</t>
   </si>
   <si>
     <t>#1 caesar salad</t>
@@ -19797,7 +19797,7 @@
     <t>シャーベット</t>
   </si>
   <si>
-    <t>#1 셔베트</t>
+    <t>#1 셔벗</t>
   </si>
   <si>
     <t>#1 sherbet</t>
@@ -20550,7 +20550,7 @@
     <t>カスエラ</t>
   </si>
   <si>
-    <t>#1 카쓰엘라</t>
+    <t>#1 카스엘라</t>
   </si>
   <si>
     <t>#1 cazuela</t>
@@ -20571,7 +20571,7 @@
     <t>ポタージュ</t>
   </si>
   <si>
-    <t>#1 포타쥬</t>
+    <t>#1 포타주</t>
   </si>
   <si>
     <t>#1 potage</t>
@@ -20693,7 +20693,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -20955,7 +20954,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="21" width="16.0"/>
+    <col customWidth="1" min="1" max="6" width="16.0"/>
+    <col customWidth="1" min="7" max="7" width="40.43"/>
+    <col customWidth="1" min="8" max="21" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21172,7 +21173,7 @@
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -21204,7 +21205,7 @@
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -21482,7 +21483,7 @@
       <c r="F16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -21497,7 +21498,7 @@
       <c r="L16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="1" t="s">
         <v>139</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -22935,7 +22936,7 @@
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>456</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -23287,7 +23288,7 @@
       <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>527</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -23296,7 +23297,7 @@
       <c r="F68" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="1" t="s">
         <v>530</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -23438,7 +23439,7 @@
       <c r="B73" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -23470,7 +23471,7 @@
       <c r="B74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -23534,7 +23535,7 @@
       <c r="B76" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>580</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -23566,7 +23567,7 @@
       <c r="B77" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>587</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -23598,7 +23599,7 @@
       <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>594</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -24096,7 +24097,7 @@
       <c r="B93" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>700</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -24370,7 +24371,7 @@
       <c r="B101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>761</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -24379,7 +24380,7 @@
       <c r="F101" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="1" t="s">
         <v>763</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -24626,7 +24627,7 @@
       <c r="B109" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>816</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -24690,7 +24691,7 @@
       <c r="B111" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>830</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -24862,7 +24863,7 @@
       <c r="B116" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>866</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -25031,7 +25032,7 @@
       <c r="B121" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>900</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -25821,7 +25822,7 @@
       <c r="B144" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -25885,7 +25886,7 @@
       <c r="B146" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -26188,7 +26189,7 @@
       <c r="B158" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -26943,7 +26944,7 @@
       <c r="B183" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -28066,7 +28067,7 @@
       <c r="B221" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -30190,7 +30191,7 @@
       <c r="B299" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="1" t="s">
         <v>1756</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -30651,7 +30652,7 @@
       <c r="C318" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -32682,7 +32683,7 @@
       <c r="B396" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D396" s="3" t="s">
+      <c r="D396" s="1" t="s">
         <v>2159</v>
       </c>
       <c r="E396" s="1" t="s">
@@ -32769,7 +32770,7 @@
       <c r="B399" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="D399" s="3" t="s">
+      <c r="D399" s="1" t="s">
         <v>2178</v>
       </c>
       <c r="E399" s="1" t="s">
@@ -37473,7 +37474,7 @@
       <c r="B588" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D588" s="3" t="s">
+      <c r="D588" s="1" t="s">
         <v>2893</v>
       </c>
       <c r="E588" s="1" t="s">
@@ -37496,7 +37497,7 @@
       <c r="B589" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D589" s="3" t="s">
+      <c r="D589" s="1" t="s">
         <v>2897</v>
       </c>
       <c r="E589" s="1" t="s">
@@ -70085,7 +70086,7 @@
       <c r="C1882" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D1882" s="1" t="s">
+      <c r="D1882" s="3" t="s">
         <v>6068</v>
       </c>
       <c r="E1882" s="1" t="s">
@@ -70761,7 +70762,7 @@
       <c r="C1908" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D1908" s="3" t="s">
+      <c r="D1908" s="1" t="s">
         <v>6171</v>
       </c>
       <c r="E1908" s="1" t="s">
@@ -71263,7 +71264,7 @@
       <c r="L1925" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="S1925" s="1" t="s">
+      <c r="S1925" s="3" t="s">
         <v>6232</v>
       </c>
       <c r="T1925" s="1" t="s">
@@ -73158,7 +73159,7 @@
       <c r="C1992" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D1992" s="1" t="s">
+      <c r="D1992" s="3" t="s">
         <v>6513</v>
       </c>
       <c r="E1992" s="1" t="s">
@@ -73173,7 +73174,7 @@
       <c r="L1992" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="S1992" s="1" t="s">
+      <c r="S1992" s="3" t="s">
         <v>6513</v>
       </c>
       <c r="T1992" s="1" t="s">
@@ -73313,7 +73314,7 @@
       <c r="L1996" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="S1996" s="1" t="s">
+      <c r="S1996" s="3" t="s">
         <v>6541</v>
       </c>
       <c r="T1996" s="1" t="s">
@@ -73584,7 +73585,7 @@
       <c r="L2004" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="S2004" s="1" t="s">
+      <c r="S2004" s="3" t="s">
         <v>6594</v>
       </c>
       <c r="T2004" s="1" t="s">
@@ -74921,7 +74922,7 @@
       <c r="L2044" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="S2044" s="1" t="s">
+      <c r="S2044" s="3" t="s">
         <v>6845</v>
       </c>
       <c r="T2044" s="1" t="s">
@@ -74956,7 +74957,7 @@
       <c r="L2045" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="S2045" s="1" t="s">
+      <c r="S2045" s="3" t="s">
         <v>6852</v>
       </c>
       <c r="T2045" s="1" t="s">

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18740" uniqueCount="6890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18742" uniqueCount="6890">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>
@@ -11276,10 +11276,10 @@
     <t xml:space="preserve">収納箱用のレンチ《倉庫》</t>
   </si>
   <si>
-    <t xml:space="preserve">A wrench that can be used to increase the storage capacity of a storage chest. It must be used on an item placed on the ground.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">収納箱に使うことで、収納数の上限を上昇させることができるレンチだ。地面に設置したアイテムに使用する必要がある。</t>
+    <t xml:space="preserve">A wrench that can be used to increase the storage capacity of ★Storage Chest. It must be used on an item placed on the ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">★収納箱に使うことで、★収納数の上限を上昇させることができるレンチだ。地面に設置したアイテムに使用する必要がある。</t>
   </si>
   <si>
     <t xml:space="preserve">wrench_fridge</t>
@@ -11291,10 +11291,10 @@
     <t xml:space="preserve">収納箱用のレンチ《冷却》</t>
   </si>
   <si>
-    <t xml:space="preserve">A wrench that can enhance the refrigeration function of a storage chest. It must be used on an item placed on the ground.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">収納箱に使うことで、冷蔵機能を強化することができるレンチだ。地面に設置したアイテムに使用する必要がある。</t>
+    <t xml:space="preserve">A wrench that can enhance the refrigeration function of ★Storage Chest. It must be used on an item placed on the ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">★収納箱に使うことで、冷蔵機能を強化することができるレンチだ。地面に設置したアイテムに使用する必要がある。</t>
   </si>
   <si>
     <t xml:space="preserve">wrench_extend_v</t>
@@ -73885,7 +73885,7 @@
         <v>3750</v>
       </c>
       <c r="B1490" t="s">
-        <v>5158</v>
+        <v>22</v>
       </c>
       <c r="C1490"/>
       <c r="D1490" t="s">
@@ -73927,7 +73927,7 @@
         <v>3755</v>
       </c>
       <c r="B1491" t="s">
-        <v>5199</v>
+        <v>22</v>
       </c>
       <c r="C1491"/>
       <c r="D1491" t="s">

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18754" uniqueCount="6900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18753" uniqueCount="6900">
   <si>
     <t xml:space="preserve">id</t>
   </si>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -19603,7 +19603,7 @@
     <t xml:space="preserve">1126</t>
   </si>
   <si>
-    <t xml:space="preserve">핫 초코</t>
+    <t xml:space="preserve">하트 초콜릿</t>
   </si>
   <si>
     <t xml:space="preserve">heart chocolate</t>
@@ -21510,9 +21510,9 @@
   <dimension ref="A1:U2069"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1820" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2035" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1833" activeCellId="0" sqref="D1833"/>
+      <selection pane="bottomLeft" activeCell="G2055" activeCellId="0" sqref="G2055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19252" uniqueCount="7147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19253" uniqueCount="7147">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">incubator</t>
   </si>
   <si>
-    <t xml:space="preserve">孵卵器 </t>
+    <t xml:space="preserve">孵卵器</t>
   </si>
   <si>
     <t xml:space="preserve">rationmaker</t>
@@ -33838,7 +33838,7 @@
         <v>1291</v>
       </c>
       <c r="B316" t="s">
-        <v>5350</v>
+        <v>22</v>
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
